--- a/biology/Botanique/Trigonia_(flore)/Trigonia_(flore).xlsx
+++ b/biology/Botanique/Trigonia_(flore)/Trigonia_(flore).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trigonia est un genre de plantes à fleurs de la famille des Trigoniaceae. Ce sont des lianes originaires des forêts néotropicales[1], et dont l'espèce type est Trigonia villosa[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trigonia est un genre de plantes à fleurs de la famille des Trigoniaceae. Ce sont des lianes originaires des forêts néotropicales, et dont l'espèce type est Trigonia villosa.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Espèces valides</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
 Trigonia bahiensis E.F. Guim., Miguel &amp; Fontella
 Trigonia boliviana Warm.
 Trigonia bracteata Lleras
@@ -572,9 +586,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « TRIGONIA. (Tabula 149.)
 CAL. Perianthium monophyllum, quinque-partitum, laciniis inaequalibus ; duabus ſuperioribus erectis, inferioribus tribus baſi coalitis.
 COR. pentapetala, inæqualis, receptaculo piſtilli inſerta, infrà ſtamina. Petalum ſuperius eredum, planum, ad baſim villoſum, flavum, duabus cavitatibus notatum, lateralia duo reflexa, anguſtiora, longiora, ſublutea, duo inferiora carinaæ in modum connexa, rubra.
